--- a/TestData/LV_TMTT0005430_TimeRecorderFunctionalities.xlsx
+++ b/TestData/LV_TMTT0005430_TimeRecorderFunctionalities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC110A2-18C4-491B-9965-DD4184E88F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F881697-9481-4186-B494-233C33CBC9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>Time Record Manager</t>
   </si>
   <si>
-    <t>Ashley Choi</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Adarsh Patel</t>
   </si>
 </sst>
 </file>
@@ -846,37 +846,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -892,14 +892,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -917,17 +917,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -945,17 +945,17 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -974,13 +974,13 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -988,9 +988,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1006,19 +1006,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1035,24 +1035,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
     </row>
   </sheetData>

--- a/TestData/LV_TMTT0005430_TimeRecorderFunctionalities.xlsx
+++ b/TestData/LV_TMTT0005430_TimeRecorderFunctionalities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F881697-9481-4186-B494-233C33CBC9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94E41FD-E7FC-4630-BF34-BD42448F685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Adarsh Patel</t>
+    <t>Aadarsh Patel</t>
   </si>
 </sst>
 </file>
